--- a/data/trans_orig/P29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127285</v>
+        <v>126932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>170107</v>
+        <v>171043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.21272282548772</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1834040151065588</v>
+        <v>0.1828965655266288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2451071741291485</v>
+        <v>0.2464546914080998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>349</v>
@@ -765,19 +765,19 @@
         <v>348734</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>322256</v>
+        <v>322976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>374946</v>
+        <v>376251</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5066216250790211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4681565872574434</v>
+        <v>0.4692031757263858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5447016910089959</v>
+        <v>0.5465978078793799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>497</v>
@@ -786,19 +786,19 @@
         <v>496366</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462517</v>
+        <v>461630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>535098</v>
+        <v>529684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3590704334951706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3345839732396881</v>
+        <v>0.3339425197232139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3870893011605777</v>
+        <v>0.3831727618466211</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>107061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87024</v>
+        <v>90375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128446</v>
+        <v>128016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1542638127569576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1253932530147968</v>
+        <v>0.1302210441240133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1850772708685822</v>
+        <v>0.1844581868621851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -836,19 +836,19 @@
         <v>159011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136709</v>
+        <v>139271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181515</v>
+        <v>181633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2310034507870416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1986033597182511</v>
+        <v>0.2023250513601403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2636957433985506</v>
+        <v>0.2638673546951271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>270</v>
@@ -857,19 +857,19 @@
         <v>266072</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238796</v>
+        <v>238940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298153</v>
+        <v>295364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.19247649848646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1727444250447679</v>
+        <v>0.1728487213033001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.215683634954226</v>
+        <v>0.2136662049972562</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>439319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>414721</v>
+        <v>415362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>466235</v>
+        <v>464812</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6330133617553224</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5975708079916667</v>
+        <v>0.5984937686271786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6717962718551072</v>
+        <v>0.6697470059883963</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -907,19 +907,19 @@
         <v>180606</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161077</v>
+        <v>157517</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>206409</v>
+        <v>202793</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2623749241339373</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2340042083791569</v>
+        <v>0.2288326318420297</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2998595770071516</v>
+        <v>0.2946063740470964</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>612</v>
@@ -928,19 +928,19 @@
         <v>619925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>578859</v>
+        <v>582974</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>654769</v>
+        <v>658525</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4484530680183694</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4187458868201701</v>
+        <v>0.4217231006710627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4736590985424098</v>
+        <v>0.4763766494819251</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>224676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199432</v>
+        <v>199056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253704</v>
+        <v>253152</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2335992068429036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2073529289674567</v>
+        <v>0.206961605937407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2637805534936112</v>
+        <v>0.2632063778715755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -1053,19 +1053,19 @@
         <v>511371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478684</v>
+        <v>478985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>541439</v>
+        <v>541541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5280611427652313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4943079135797844</v>
+        <v>0.4946183733024142</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5591104322654121</v>
+        <v>0.5592156960277208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1074,19 +1074,19 @@
         <v>736046</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693583</v>
+        <v>695451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>780206</v>
+        <v>779673</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.381333078671547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3593336139371978</v>
+        <v>0.3603014688638643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4042113117171185</v>
+        <v>0.4039353036729136</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>155226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131811</v>
+        <v>132242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>180392</v>
+        <v>179350</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1613907038974396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1370459105288863</v>
+        <v>0.1374943894042515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1875571598901779</v>
+        <v>0.1864732821427947</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -1124,19 +1124,19 @@
         <v>177512</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>153578</v>
+        <v>156122</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202797</v>
+        <v>203297</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1833053929252871</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1585900825466541</v>
+        <v>0.1612179103597526</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2094157087090239</v>
+        <v>0.2099318983943253</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>320</v>
@@ -1145,19 +1145,19 @@
         <v>332737</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>302083</v>
+        <v>300953</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>367345</v>
+        <v>368018</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1723854759377164</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1565042878530306</v>
+        <v>0.1559183533132725</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1903152709868924</v>
+        <v>0.1906636490413248</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>581899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>551756</v>
+        <v>551162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>613485</v>
+        <v>610004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6050100892596568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5736705875532465</v>
+        <v>0.573052891983684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6378511325527335</v>
+        <v>0.6342312162315134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -1195,19 +1195,19 @@
         <v>279511</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251875</v>
+        <v>249644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>307862</v>
+        <v>309121</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2886334643094816</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2600962192192695</v>
+        <v>0.2577916402396946</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3179101413269338</v>
+        <v>0.3192101793462822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>806</v>
@@ -1216,19 +1216,19 @@
         <v>861409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>818522</v>
+        <v>819765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>908167</v>
+        <v>905096</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4462814453907366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4240623327995528</v>
+        <v>0.4247062733893585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4705060245748486</v>
+        <v>0.46891467217485</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>215291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>187540</v>
+        <v>190266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>244107</v>
+        <v>242341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3173006143249584</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2764005660234244</v>
+        <v>0.2804181878526369</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3597696503882016</v>
+        <v>0.3571667739239165</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>380</v>
@@ -1341,19 +1341,19 @@
         <v>380363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>355084</v>
+        <v>352150</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>404855</v>
+        <v>404751</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.556215204752289</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5192491086853752</v>
+        <v>0.5149589312583938</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5920302949054103</v>
+        <v>0.5918794785348763</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>575</v>
@@ -1362,19 +1362,19 @@
         <v>595654</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>559988</v>
+        <v>559225</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>633091</v>
+        <v>631918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4372254551750334</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.411045651769799</v>
+        <v>0.4104853813211894</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.464705242414496</v>
+        <v>0.4638438577192827</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>132180</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111858</v>
+        <v>109209</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153565</v>
+        <v>153346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1948099032555408</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1648585323252704</v>
+        <v>0.1609540891805432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2263268209053259</v>
+        <v>0.2260050544801602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -1412,19 +1412,19 @@
         <v>173129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151276</v>
+        <v>151399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194448</v>
+        <v>194927</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2531720092017424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2212152400771627</v>
+        <v>0.2213946524029501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2843472675312637</v>
+        <v>0.2850467826374665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>309</v>
@@ -1433,19 +1433,19 @@
         <v>305310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>274156</v>
+        <v>278256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334653</v>
+        <v>336183</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2241051683741536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2012377187848256</v>
+        <v>0.2042467594918906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2456441007779202</v>
+        <v>0.2467672652274326</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>331037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302144</v>
+        <v>303680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357302</v>
+        <v>358391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4878894824195008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4453054379219759</v>
+        <v>0.4475702493239847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5265990215618745</v>
+        <v>0.5282037177449861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -1483,19 +1483,19 @@
         <v>130349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111899</v>
+        <v>111726</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149845</v>
+        <v>151925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1906127860459687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1636323385722366</v>
+        <v>0.1633793945593976</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2191229918847244</v>
+        <v>0.2221640567562463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>453</v>
@@ -1504,19 +1504,19 @@
         <v>461386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>425517</v>
+        <v>425634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495472</v>
+        <v>496850</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.338669376450813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.312340311076152</v>
+        <v>0.3124262169668384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3636892801184104</v>
+        <v>0.3647008840854822</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>265953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>239577</v>
+        <v>238888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>294744</v>
+        <v>291670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2822610258375651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2542676286275455</v>
+        <v>0.2535364243794738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3128177565996401</v>
+        <v>0.3095549813720775</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>519</v>
@@ -1629,19 +1629,19 @@
         <v>546495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>511468</v>
+        <v>518729</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>578698</v>
+        <v>580972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.526178104821451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4924530053055171</v>
+        <v>0.4994448552874748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5571842466227171</v>
+        <v>0.5593738617535942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>797</v>
@@ -1650,19 +1650,19 @@
         <v>812447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>770791</v>
+        <v>769546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>861267</v>
+        <v>857236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4101542229701156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3891243324757616</v>
+        <v>0.3884960476960658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4348002033033729</v>
+        <v>0.4327654172110821</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>147621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128399</v>
+        <v>127232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169858</v>
+        <v>167375</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.156672854656925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1362724900739854</v>
+        <v>0.1350344907983883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1802738741737801</v>
+        <v>0.1776386011544455</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1700,19 +1700,19 @@
         <v>187062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164419</v>
+        <v>163989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215915</v>
+        <v>213494</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.18010777666926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1583060398773627</v>
+        <v>0.1578923631929391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2078879878707938</v>
+        <v>0.2055570920038059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>344</v>
@@ -1721,19 +1721,19 @@
         <v>334683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299596</v>
+        <v>305406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>367551</v>
+        <v>368351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1689605022181173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1512472825066181</v>
+        <v>0.1541804884808024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1855535705054134</v>
+        <v>0.1859573576475885</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>528649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>500802</v>
+        <v>500095</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>560375</v>
+        <v>557723</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5610661195055099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5315121918300746</v>
+        <v>0.5307611300134607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5947373889377781</v>
+        <v>0.5919226126945371</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>294</v>
@@ -1771,19 +1771,19 @@
         <v>305055</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>274245</v>
+        <v>276178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>333904</v>
+        <v>334034</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.293714118509289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2640497550913812</v>
+        <v>0.2659101812307579</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3214904839815863</v>
+        <v>0.3216161314020794</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>850</v>
@@ -1792,19 +1792,19 @@
         <v>833704</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>788261</v>
+        <v>789555</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>878724</v>
+        <v>875863</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4208852748117671</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3979439087841555</v>
+        <v>0.3985973955868857</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4436132720047082</v>
+        <v>0.4421687848739474</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>853552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>799159</v>
+        <v>808020</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>904543</v>
+        <v>906590</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2605037613168781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2439030758347922</v>
+        <v>0.2466074205422118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2760663454046912</v>
+        <v>0.2766908915165671</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1720</v>
@@ -1917,19 +1917,19 @@
         <v>1786962</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1731811</v>
+        <v>1726457</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1843334</v>
+        <v>1852439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5288125771850047</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5124917965319051</v>
+        <v>0.5109073783996453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5454948026145258</v>
+        <v>0.5481890211557454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2547</v>
@@ -1938,19 +1938,19 @@
         <v>2640514</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2559893</v>
+        <v>2565161</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2719851</v>
+        <v>2726454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3967272830643235</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3846142264994757</v>
+        <v>0.3854057969941816</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.408647290168641</v>
+        <v>0.4096393979384069</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>542087</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>497644</v>
+        <v>500794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>580142</v>
+        <v>581413</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1654449205693351</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1518807656139675</v>
+        <v>0.152842054777483</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1770593076817596</v>
+        <v>0.1774470793055561</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>702</v>
@@ -1988,19 +1988,19 @@
         <v>696715</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>647880</v>
+        <v>650464</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>744642</v>
+        <v>747055</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2061775671834648</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1917261656024719</v>
+        <v>0.192490803600443</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2203606124891862</v>
+        <v>0.221074846026584</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1243</v>
@@ -2009,19 +2009,19 @@
         <v>1238802</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1177042</v>
+        <v>1180647</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1299598</v>
+        <v>1307060</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1861253613290532</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1768460540548669</v>
+        <v>0.1773877369785094</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1952596612260772</v>
+        <v>0.1963807966733827</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1880904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5740513181137867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>875</v>
@@ -2059,19 +2059,19 @@
         <v>895521</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2650098556315305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2721</v>
@@ -2080,19 +2080,19 @@
         <v>2776425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4171473556066232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>180120</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156281</v>
+        <v>155755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205460</v>
+        <v>205997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2560456010180638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2221571007813703</v>
+        <v>0.2214098495429765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2920669028520588</v>
+        <v>0.2928308278838207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>390</v>
@@ -2445,19 +2445,19 @@
         <v>418881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>393281</v>
+        <v>390860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450218</v>
+        <v>442930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6009341437738208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5642076101769599</v>
+        <v>0.560734344035581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.645890739292812</v>
+        <v>0.6354357282465074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>559</v>
@@ -2466,19 +2466,19 @@
         <v>599001</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>562125</v>
+        <v>563113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>644786</v>
+        <v>638542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4276995109221795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4013693950060163</v>
+        <v>0.4020742705837487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4603904170892486</v>
+        <v>0.4559322162774849</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>95221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77511</v>
+        <v>78735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112763</v>
+        <v>114853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1353594267651335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1101837592851087</v>
+        <v>0.1119239631621806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1602954787485847</v>
+        <v>0.1632666314803231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -2516,19 +2516,19 @@
         <v>101729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84617</v>
+        <v>85183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121731</v>
+        <v>123591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1459421095231901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1213925779927421</v>
+        <v>0.1222056801962797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1746368327408939</v>
+        <v>0.1773057455076181</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>191</v>
@@ -2537,19 +2537,19 @@
         <v>196950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170865</v>
+        <v>170484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226427</v>
+        <v>225990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1406265164114884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1220009427472974</v>
+        <v>0.1217290701917748</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1616734547424387</v>
+        <v>0.1613613518116811</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>428128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>402964</v>
+        <v>401628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>453908</v>
+        <v>457385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6085949722168027</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5728237899884305</v>
+        <v>0.5709244515725124</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6452423009369642</v>
+        <v>0.6501847449069469</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -2587,19 +2587,19 @@
         <v>176440</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153064</v>
+        <v>153670</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200318</v>
+        <v>201502</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2531237467029891</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2195876517947991</v>
+        <v>0.2204572407387426</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2873798915035651</v>
+        <v>0.2890777901352412</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>574</v>
@@ -2608,19 +2608,19 @@
         <v>604568</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>564261</v>
+        <v>569694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>642831</v>
+        <v>641581</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4316739726663321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4028942150889012</v>
+        <v>0.4067734661053762</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4589947218144115</v>
+        <v>0.4581025699562091</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>285817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>256759</v>
+        <v>256130</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>315970</v>
+        <v>316036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2807782226971693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2522318816871363</v>
+        <v>0.2516144066188198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3103991830326843</v>
+        <v>0.310463650015288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -2733,19 +2733,19 @@
         <v>602094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>566550</v>
+        <v>563760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>630805</v>
+        <v>631137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5833207160718175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5488847300323549</v>
+        <v>0.5461813228627769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6111364930174704</v>
+        <v>0.6114579891753725</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>808</v>
@@ -2754,19 +2754,19 @@
         <v>887912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>845142</v>
+        <v>843555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>936259</v>
+        <v>934810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4330999534346172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4122381555519166</v>
+        <v>0.4114639459288502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4566823476817549</v>
+        <v>0.4559756331858587</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>136686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116316</v>
+        <v>114900</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>160628</v>
+        <v>160744</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1342757879987449</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1142651864810565</v>
+        <v>0.1128738125601473</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1577962121394585</v>
+        <v>0.1579097024724975</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -2804,19 +2804,19 @@
         <v>132565</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>110936</v>
+        <v>112475</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>155407</v>
+        <v>157581</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1284315877836485</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1074768556897128</v>
+        <v>0.1089674977170104</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1505616205023117</v>
+        <v>0.1526673675633535</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>246</v>
@@ -2825,19 +2825,19 @@
         <v>269251</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>239086</v>
+        <v>238892</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>300916</v>
+        <v>303198</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1313333957363883</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1166196945483503</v>
+        <v>0.1165251140790408</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1467786823150582</v>
+        <v>0.1478920172883285</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>595444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>561679</v>
+        <v>566270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>627297</v>
+        <v>629871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5849459893040858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5517762422540079</v>
+        <v>0.5562867932618909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6162369730919934</v>
+        <v>0.6187658833145565</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -2875,19 +2875,19 @@
         <v>297525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>269318</v>
+        <v>269421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>329035</v>
+        <v>332833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.288247696144534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2609204726748698</v>
+        <v>0.2610205398274574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3187756125890365</v>
+        <v>0.3224551691491546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>822</v>
@@ -2896,19 +2896,19 @@
         <v>892969</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>844843</v>
+        <v>847348</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>938101</v>
+        <v>937556</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4355666508289945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4120920764535099</v>
+        <v>0.4133138503137307</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4575812400503748</v>
+        <v>0.457315377567884</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>207567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>182077</v>
+        <v>179327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>233681</v>
+        <v>231461</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2739714207314627</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2403262804614149</v>
+        <v>0.236696369848801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3084394992796098</v>
+        <v>0.3055100492520855</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>405</v>
@@ -3021,19 +3021,19 @@
         <v>444219</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>414447</v>
+        <v>416379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>475975</v>
+        <v>474170</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5723203770107509</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5339626151819039</v>
+        <v>0.5364517163285693</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6132340893473501</v>
+        <v>0.6109082997828527</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>592</v>
@@ -3042,19 +3042,19 @@
         <v>651787</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>609827</v>
+        <v>613826</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>693921</v>
+        <v>692790</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4249499466491984</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3975935058546924</v>
+        <v>0.4002004686297917</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4524204444042264</v>
+        <v>0.4516834413217573</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>89442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72493</v>
+        <v>71216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108989</v>
+        <v>111032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1180555838454568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09568479881794442</v>
+        <v>0.09399880090401498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1438571383224363</v>
+        <v>0.1465534370535933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -3092,19 +3092,19 @@
         <v>123211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103851</v>
+        <v>103626</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144352</v>
+        <v>146122</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.158742089984218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1337994972772632</v>
+        <v>0.1335093010352717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1859798549310235</v>
+        <v>0.1882599556533781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -3113,19 +3113,19 @@
         <v>212653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186822</v>
+        <v>186077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>241953</v>
+        <v>241744</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1386448588949821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1218034090122147</v>
+        <v>0.1213179045618726</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.157747947357508</v>
+        <v>0.157611521789717</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>460614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433638</v>
+        <v>431420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489689</v>
+        <v>489913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6079729954230805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5723664249774472</v>
+        <v>0.5694389559805135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6463495882805574</v>
+        <v>0.6466442631075486</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -3163,19 +3163,19 @@
         <v>208742</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182219</v>
+        <v>181465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>237372</v>
+        <v>233052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2689375330050311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2347665339850727</v>
+        <v>0.2337945075457102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3058244833676076</v>
+        <v>0.3002584182425942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>604</v>
@@ -3184,19 +3184,19 @@
         <v>669357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>631052</v>
+        <v>622909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>713731</v>
+        <v>705950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4364051944558195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4114314284565502</v>
+        <v>0.4061226270080466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4653360928325947</v>
+        <v>0.4602631786516253</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>270218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>239813</v>
+        <v>241002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>300967</v>
+        <v>297248</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2851180730777257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2530364960286313</v>
+        <v>0.2542916673029348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3175633021525924</v>
+        <v>0.31363891974153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>536</v>
@@ -3309,19 +3309,19 @@
         <v>560425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>527709</v>
+        <v>525338</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>595809</v>
+        <v>593880</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5332636296699893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5021331820831352</v>
+        <v>0.499877650013682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5669330961095014</v>
+        <v>0.5650970722801759</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>791</v>
@@ -3330,19 +3330,19 @@
         <v>830643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>786114</v>
+        <v>789705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>876180</v>
+        <v>878412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.415596946809705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3933178333336996</v>
+        <v>0.3951143466042935</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4383807699267818</v>
+        <v>0.4394971807238825</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>117141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99071</v>
+        <v>98067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140076</v>
+        <v>140473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1236002532630502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1045341980059463</v>
+        <v>0.1034748912000864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1477998724985433</v>
+        <v>0.1482192904260905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -3380,19 +3380,19 @@
         <v>119278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99414</v>
+        <v>101270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141585</v>
+        <v>140977</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1134974163624261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0945955085174173</v>
+        <v>0.09636212882780217</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1347231586966694</v>
+        <v>0.134144462261681</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -3401,19 +3401,19 @@
         <v>236419</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209089</v>
+        <v>206009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269149</v>
+        <v>266646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1182880212070183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1046138192525688</v>
+        <v>0.1030727533884523</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1346637489988123</v>
+        <v>0.13341153142443</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>560381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>531312</v>
+        <v>533032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>593407</v>
+        <v>591370</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5912816736592241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5606099410161581</v>
+        <v>0.5624252807212388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6261289353098729</v>
+        <v>0.6239802143909665</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>349</v>
@@ -3451,19 +3451,19 @@
         <v>371231</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>335294</v>
+        <v>340099</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>403533</v>
+        <v>401942</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3532389539675846</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3190437598684778</v>
+        <v>0.3236160160713077</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3839759555931739</v>
+        <v>0.3824619085882681</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>891</v>
@@ -3472,19 +3472,19 @@
         <v>931612</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>885334</v>
+        <v>884299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>976823</v>
+        <v>979305</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4661150319832766</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4429604485666349</v>
+        <v>0.4424427818145644</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4887357614780323</v>
+        <v>0.4899774904890513</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>943722</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>889143</v>
+        <v>889383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>995222</v>
+        <v>1001333</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2753963238786427</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.25946909978702</v>
+        <v>0.2595391610727318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.290424867095799</v>
+        <v>0.2922081136069746</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1878</v>
@@ -3597,19 +3597,19 @@
         <v>2025620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1962956</v>
+        <v>1960161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2082326</v>
+        <v>2082687</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5695797847922034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5519593694765093</v>
+        <v>0.5511734669605987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5855247218909839</v>
+        <v>0.5856263345447033</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2750</v>
@@ -3618,19 +3618,19 @@
         <v>2969342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2875143</v>
+        <v>2878339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3053052</v>
+        <v>3057948</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4252171344078009</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4117275456360175</v>
+        <v>0.4121852268518694</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4372045923590513</v>
+        <v>0.437905648302558</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>438489</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>400808</v>
+        <v>400525</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>480835</v>
+        <v>480079</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1279596163700557</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1169633369961404</v>
+        <v>0.1168809028230508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1403169612768322</v>
+        <v>0.1400962144051479</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>450</v>
@@ -3668,19 +3668,19 @@
         <v>476784</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>437770</v>
+        <v>437286</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>522539</v>
+        <v>519817</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1340657630957602</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.12309553231788</v>
+        <v>0.1229595384320199</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1469317162447122</v>
+        <v>0.1461662858250718</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>864</v>
@@ -3689,19 +3689,19 @@
         <v>915273</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>854746</v>
+        <v>863648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>973166</v>
+        <v>979589</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1310693352128965</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1224016727800065</v>
+        <v>0.1236764984729321</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1393597517235922</v>
+        <v>0.1402796268912027</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2044567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5966440597513015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>968</v>
@@ -3739,19 +3739,19 @@
         <v>1053937</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2963544521120364</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2891</v>
@@ -3760,19 +3760,19 @@
         <v>3098505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4437135303793026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>65480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50964</v>
+        <v>51534</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81084</v>
+        <v>82767</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09703653824042605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07552414880933951</v>
+        <v>0.07636914830261111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1201594342382976</v>
+        <v>0.1226547297547811</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>229</v>
@@ -4125,19 +4125,19 @@
         <v>237724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>215360</v>
+        <v>214695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>263915</v>
+        <v>264055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3533148134465472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3200766124971789</v>
+        <v>0.3190886258308712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.392241501767882</v>
+        <v>0.3924485605946326</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -4146,19 +4146,19 @@
         <v>303204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>274897</v>
+        <v>267638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>335559</v>
+        <v>333177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2249892155979305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.203984024096107</v>
+        <v>0.1985977892215099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2489973214218086</v>
+        <v>0.2472300119109835</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>179589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155321</v>
+        <v>158617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202158</v>
+        <v>202986</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2661372366275387</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2301736435778369</v>
+        <v>0.2350572896746113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2995820551128753</v>
+        <v>0.3008085075312489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -4196,19 +4196,19 @@
         <v>249590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224297</v>
+        <v>225064</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272636</v>
+        <v>275974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3709505883879406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3333583716153051</v>
+        <v>0.3344986398418016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4052022311258133</v>
+        <v>0.4101631054466114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -4217,19 +4217,19 @@
         <v>429179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>395744</v>
+        <v>399644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>464022</v>
+        <v>466660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3184676535143034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2936569531030744</v>
+        <v>0.2965510578764938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3443218681215319</v>
+        <v>0.3462798685737721</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>429730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>404542</v>
+        <v>404951</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>458382</v>
+        <v>454330</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6368262251320352</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5994990835120285</v>
+        <v>0.600105130805482</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6792862481173485</v>
+        <v>0.6732807053785452</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>192</v>
@@ -4267,19 +4267,19 @@
         <v>185525</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161770</v>
+        <v>163079</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>206373</v>
+        <v>209456</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2757345981655122</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2404286582893339</v>
+        <v>0.2423740829554552</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3067192678218123</v>
+        <v>0.3113024223804713</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>603</v>
@@ -4288,19 +4288,19 @@
         <v>615255</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>580718</v>
+        <v>578472</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>653257</v>
+        <v>650993</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4565431308877661</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4309149089509614</v>
+        <v>0.4292481688818952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4847418548142112</v>
+        <v>0.4830617440065383</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>133764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>114388</v>
+        <v>113481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>156664</v>
+        <v>156866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1308295054780828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1118782736131212</v>
+        <v>0.1109914648063013</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1532272641227839</v>
+        <v>0.1534240747296653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -4413,19 +4413,19 @@
         <v>303055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272282</v>
+        <v>272689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332336</v>
+        <v>334477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2911886871134452</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2616206283409457</v>
+        <v>0.262011936666584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3193237481750927</v>
+        <v>0.3213804625122027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>396</v>
@@ -4434,19 +4434,19 @@
         <v>436819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>398696</v>
+        <v>400982</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>477995</v>
+        <v>476414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.211721023102928</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1932432154857057</v>
+        <v>0.1943511407311301</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2316787914500087</v>
+        <v>0.2309122083224944</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>313143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>282464</v>
+        <v>283408</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>341952</v>
+        <v>344988</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3062729067387365</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2762672614324857</v>
+        <v>0.2771900713662497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.334449819765495</v>
+        <v>0.3374192718360384</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>391</v>
@@ -4484,19 +4484,19 @@
         <v>413549</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>380915</v>
+        <v>380181</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>445385</v>
+        <v>446828</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3973564380435837</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3660004179057774</v>
+        <v>0.3652950933024093</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4279465816349721</v>
+        <v>0.4293325994149116</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>689</v>
@@ -4505,19 +4505,19 @@
         <v>726692</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>688444</v>
+        <v>684215</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>776559</v>
+        <v>769211</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.352219044669478</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3336808104290537</v>
+        <v>0.3316309889207309</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3763891880490802</v>
+        <v>0.3728276664470642</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>575524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>543802</v>
+        <v>541950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>608878</v>
+        <v>608708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5628975877831808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5318718509092625</v>
+        <v>0.5300602219069941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5955201591434417</v>
+        <v>0.5953540215547766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -4555,19 +4555,19 @@
         <v>324147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>293148</v>
+        <v>293795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>354486</v>
+        <v>355375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3114548748429711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2816695784717493</v>
+        <v>0.2822917868815186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3406063032341424</v>
+        <v>0.3414602119901628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>841</v>
@@ -4576,19 +4576,19 @@
         <v>899671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>854120</v>
+        <v>853066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>944532</v>
+        <v>947979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.436059932227594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4139820989974328</v>
+        <v>0.4134714466147282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4578039210716353</v>
+        <v>0.4594746204505605</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>125777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105797</v>
+        <v>105248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>147826</v>
+        <v>150205</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1655933459816614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1392888350024714</v>
+        <v>0.1385652410649886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.194623057462897</v>
+        <v>0.1977552901222123</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>255</v>
@@ -4701,19 +4701,19 @@
         <v>280609</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>251429</v>
+        <v>250266</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>306329</v>
+        <v>304986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3579546839089872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3207322453033099</v>
+        <v>0.3192479896952773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3907641828261752</v>
+        <v>0.3890510492250005</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>368</v>
@@ -4722,19 +4722,19 @@
         <v>406385</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>370256</v>
+        <v>372562</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>440938</v>
+        <v>445279</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2632926014713885</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2398849676822754</v>
+        <v>0.2413787589825948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2856792182114818</v>
+        <v>0.2884916489523122</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>207088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184436</v>
+        <v>183062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>233031</v>
+        <v>231506</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2726453031550379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2428225556016222</v>
+        <v>0.2410137130711903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3068012145568348</v>
+        <v>0.3047934416105995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>258</v>
@@ -4772,19 +4772,19 @@
         <v>268827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238774</v>
+        <v>239856</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>295118</v>
+        <v>296615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3429252555926556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3045892114060893</v>
+        <v>0.3059688623995913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3764639821085605</v>
+        <v>0.3783731086072932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>454</v>
@@ -4793,19 +4793,19 @@
         <v>475915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>440637</v>
+        <v>439443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>512154</v>
+        <v>514184</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3083401007842931</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2854839001549513</v>
+        <v>0.2847102245345389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3318191216786427</v>
+        <v>0.3331340624799827</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>426687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>398731</v>
+        <v>401162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>459151</v>
+        <v>454996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5617613508633008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5249552568903669</v>
+        <v>0.528156323233245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6045026249059169</v>
+        <v>0.5990321178791862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -4843,19 +4843,19 @@
         <v>234487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208318</v>
+        <v>211475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>263414</v>
+        <v>264025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2991200604983573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2657375501595834</v>
+        <v>0.269765984550866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3360204298704543</v>
+        <v>0.336800262443892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>609</v>
@@ -4864,19 +4864,19 @@
         <v>661174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>620472</v>
+        <v>620377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>699280</v>
+        <v>700298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4283672977443184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4019969066306948</v>
+        <v>0.4019357100334626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4530556377460008</v>
+        <v>0.4537156668663775</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>106487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87164</v>
+        <v>88365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126881</v>
+        <v>127325</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1138275171808864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0931733401498217</v>
+        <v>0.09445658562942782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1356276114205061</v>
+        <v>0.1361028759350438</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>264</v>
@@ -4989,19 +4989,19 @@
         <v>300543</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>270706</v>
+        <v>266626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>332986</v>
+        <v>330738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2888445865890979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2601691206331759</v>
+        <v>0.2562476220681589</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3200246348317143</v>
+        <v>0.3178642702502565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -5010,19 +5010,19 @@
         <v>407030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>370573</v>
+        <v>370696</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>442207</v>
+        <v>445010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2059857383926014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.187536145899152</v>
+        <v>0.1875983648257279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2237878175958284</v>
+        <v>0.2252062770021094</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>253694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>227172</v>
+        <v>228208</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283831</v>
+        <v>281412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.271182857889428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2428329865204984</v>
+        <v>0.2439402556293944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3033968861962402</v>
+        <v>0.3008120565413948</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>313</v>
@@ -5060,19 +5060,19 @@
         <v>330987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300560</v>
+        <v>302648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>362223</v>
+        <v>367697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3181033507883744</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2888608389938412</v>
+        <v>0.2908669544808837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.348123212923934</v>
+        <v>0.3533841750810539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>573</v>
@@ -5081,19 +5081,19 @@
         <v>584681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>547075</v>
+        <v>545703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>625690</v>
+        <v>621130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2958896432250812</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2768583798623821</v>
+        <v>0.2761641415400813</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3166431925024023</v>
+        <v>0.3143350632575164</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>575328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>546309</v>
+        <v>546520</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>608189</v>
+        <v>603312</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6149896249296856</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5839702938374651</v>
+        <v>0.5841954331873579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6501152894725553</v>
+        <v>0.6449020859021647</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>379</v>
@@ -5131,19 +5131,19 @@
         <v>408971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>377744</v>
+        <v>376718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>442943</v>
+        <v>440995</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3930520626225277</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3630404923345824</v>
+        <v>0.3620541483371104</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4257014688705252</v>
+        <v>0.4238292859219556</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>948</v>
@@ -5152,19 +5152,19 @@
         <v>984300</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>940586</v>
+        <v>940618</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1030248</v>
+        <v>1031486</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4981246183823174</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4760024677530702</v>
+        <v>0.476018609999722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5213777752420574</v>
+        <v>0.5220043605268933</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>431508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>391511</v>
+        <v>392266</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>470454</v>
+        <v>472781</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.127202445806949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1154119528552291</v>
+        <v>0.1156345300804741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1386832011436724</v>
+        <v>0.1393691495385752</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1023</v>
@@ -5277,19 +5277,19 @@
         <v>1121931</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1066305</v>
+        <v>1069494</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1175985</v>
+        <v>1179864</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3171075182799169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3013853089616687</v>
+        <v>0.3022865401995213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3323857067032592</v>
+        <v>0.33348203961591</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1422</v>
@@ -5298,19 +5298,19 @@
         <v>1553439</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1480823</v>
+        <v>1484724</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1628590</v>
+        <v>1632276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2241515225702431</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2136735579339487</v>
+        <v>0.2142363841044549</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2349954002686149</v>
+        <v>0.2355271988165837</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>953515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>897164</v>
+        <v>901096</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1001820</v>
+        <v>1008097</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2810827045943088</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.264471409937839</v>
+        <v>0.2656305543019788</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2953224954053901</v>
+        <v>0.2971728506949187</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1207</v>
@@ -5348,19 +5348,19 @@
         <v>1262953</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1202943</v>
+        <v>1200876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1321628</v>
+        <v>1319418</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.356966624611562</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3400050317893346</v>
+        <v>0.339420956489785</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3735508208126688</v>
+        <v>0.372926255721074</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2138</v>
@@ -5369,19 +5369,19 @@
         <v>2216468</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2129498</v>
+        <v>2142056</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2289802</v>
+        <v>2298130</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3198224596258631</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3072732512788464</v>
+        <v>0.3090853105615037</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3304041189038502</v>
+        <v>0.3316058609577559</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>2007270</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5917148495987421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1102</v>
@@ -5419,19 +5419,19 @@
         <v>1153130</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3259258571085211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3001</v>
@@ -5440,19 +5440,19 @@
         <v>3160400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4560260178038938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>121586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102105</v>
+        <v>102979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144163</v>
+        <v>145365</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1765003005358115</v>
+        <v>0.1765003005358114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1482199022433396</v>
+        <v>0.1494884465054613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2092739662922129</v>
+        <v>0.2110182558853375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>503</v>
@@ -5805,19 +5805,19 @@
         <v>268584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248077</v>
+        <v>247969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290984</v>
+        <v>291457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3667008891273986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3387027504987024</v>
+        <v>0.3385546515171122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3972831574289498</v>
+        <v>0.3979287100363562</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>643</v>
@@ -5826,19 +5826,19 @@
         <v>390171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>358286</v>
+        <v>358609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423507</v>
+        <v>423434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2745152041602397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2520819536334439</v>
+        <v>0.2523086714935762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2979695779224976</v>
+        <v>0.2979180877886727</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>176198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153339</v>
+        <v>153202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202142</v>
+        <v>204002</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2557766301121303</v>
+        <v>0.2557766301121302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2225939559439841</v>
+        <v>0.2223949447165234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2934384779439982</v>
+        <v>0.2961377486868003</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -5876,19 +5876,19 @@
         <v>242294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220849</v>
+        <v>221963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262607</v>
+        <v>262030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3308065678079504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3015272787196159</v>
+        <v>0.3030484108574708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3585402883639913</v>
+        <v>0.3577519767547879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>605</v>
@@ -5897,19 +5897,19 @@
         <v>418492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388472</v>
+        <v>388185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450738</v>
+        <v>450167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2944413480641542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2733196620675882</v>
+        <v>0.2731181067163678</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3171286906692952</v>
+        <v>0.3167270867733098</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>391090</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>361201</v>
+        <v>362182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>416420</v>
+        <v>419210</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5677230693520583</v>
+        <v>0.5677230693520582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5243348904115148</v>
+        <v>0.5257599770218727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6044932603686436</v>
+        <v>0.6085439279113989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>325</v>
@@ -5947,19 +5947,19 @@
         <v>221556</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>201978</v>
+        <v>201751</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>245156</v>
+        <v>243613</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3024925430646511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2757633580598078</v>
+        <v>0.2754522942973292</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3347139745510635</v>
+        <v>0.3326067727925987</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>718</v>
@@ -5968,19 +5968,19 @@
         <v>612646</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>576026</v>
+        <v>575074</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>647024</v>
+        <v>654950</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4310434477756061</v>
+        <v>0.431043447775606</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4052787665938901</v>
+        <v>0.4046087985073251</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4552311109000429</v>
+        <v>0.4608075979661784</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>166558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142892</v>
+        <v>141899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195347</v>
+        <v>196402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1589694378397827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1363823356124711</v>
+        <v>0.1354346202221514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.186447472236864</v>
+        <v>0.1874540437684973</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -6093,19 +6093,19 @@
         <v>305975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>282929</v>
+        <v>280815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334295</v>
+        <v>333141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2861685770888001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2646141351540928</v>
+        <v>0.262636693492644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3126555575037515</v>
+        <v>0.3115763493035363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>643</v>
@@ -6114,19 +6114,19 @@
         <v>472533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>438644</v>
+        <v>437178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>514234</v>
+        <v>512292</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2232143261142951</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.207206121301149</v>
+        <v>0.206513595611754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2429131840492911</v>
+        <v>0.2419958261487139</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>269462</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>239523</v>
+        <v>240780</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>304473</v>
+        <v>302603</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2571855092931972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.228610725945013</v>
+        <v>0.2298103864534426</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2906020517898589</v>
+        <v>0.2888168069006167</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>583</v>
@@ -6164,19 +6164,19 @@
         <v>410618</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>383289</v>
+        <v>384404</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>438969</v>
+        <v>439558</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3840380500087175</v>
+        <v>0.3840380500087174</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.35847759255945</v>
+        <v>0.3595208826613759</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4105530958365932</v>
+        <v>0.4111039546181664</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>844</v>
@@ -6185,19 +6185,19 @@
         <v>680080</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>638670</v>
+        <v>637086</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>721870</v>
+        <v>723539</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3212553399046459</v>
+        <v>0.3212553399046461</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3016939127406508</v>
+        <v>0.3009458840721267</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3409959724200581</v>
+        <v>0.3417842969295389</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>611714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>571969</v>
+        <v>577075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>644751</v>
+        <v>646515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5838450528670202</v>
+        <v>0.58384505286702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5459105843871541</v>
+        <v>0.5507845697873318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6153771000664026</v>
+        <v>0.6170606469677424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>453</v>
@@ -6235,19 +6235,19 @@
         <v>352619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>324086</v>
+        <v>324782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>381014</v>
+        <v>380107</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3297933729024825</v>
+        <v>0.3297933729024826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3031073861641069</v>
+        <v>0.3037582638741591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.356350326014604</v>
+        <v>0.3555021156330171</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>990</v>
@@ -6256,19 +6256,19 @@
         <v>964333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>917871</v>
+        <v>917910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1009374</v>
+        <v>1014970</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4555303339810587</v>
+        <v>0.4555303339810589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4335825433929715</v>
+        <v>0.4336008650203459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4768064770981615</v>
+        <v>0.479450002772243</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>146299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121463</v>
+        <v>122533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173581</v>
+        <v>177393</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1829561833858898</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1518979983636179</v>
+        <v>0.1532356745894695</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2170742093633603</v>
+        <v>0.2218420514011347</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>354</v>
@@ -6381,19 +6381,19 @@
         <v>259157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>233617</v>
+        <v>234513</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283846</v>
+        <v>285704</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3200903378838326</v>
+        <v>0.3200903378838325</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2885444453547252</v>
+        <v>0.2896514271607952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3505835161824748</v>
+        <v>0.3528784405703758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>476</v>
@@ -6402,19 +6402,19 @@
         <v>405456</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>370212</v>
+        <v>372479</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>442836</v>
+        <v>442106</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2519493703480236</v>
+        <v>0.2519493703480237</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2300491903306276</v>
+        <v>0.2314576119647906</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2751771889518896</v>
+        <v>0.2747238745633952</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>213772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187688</v>
+        <v>185240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244811</v>
+        <v>244421</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2673358888617932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2347163554221569</v>
+        <v>0.2316550001277044</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3061530341572316</v>
+        <v>0.30566468053795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -6452,19 +6452,19 @@
         <v>256924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>234232</v>
+        <v>232375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>281434</v>
+        <v>280863</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.317331458322042</v>
+        <v>0.3173314583220418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.289304197287627</v>
+        <v>0.287010947440786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.347604623363955</v>
+        <v>0.3468994943084542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>515</v>
@@ -6473,19 +6473,19 @@
         <v>470695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>436761</v>
+        <v>436823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>507550</v>
+        <v>508041</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2924890221835218</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2714025930263129</v>
+        <v>0.2714408871065512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3153902886789969</v>
+        <v>0.3156952941366268</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>439567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404499</v>
+        <v>405591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>469402</v>
+        <v>472560</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5497079277523171</v>
+        <v>0.549707927752317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5058532147358974</v>
+        <v>0.5072189220784699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5870186826206694</v>
+        <v>0.5909685124813607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>358</v>
@@ -6523,19 +6523,19 @@
         <v>293557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>269065</v>
+        <v>268372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>318765</v>
+        <v>319898</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3625782037941256</v>
+        <v>0.3625782037941255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3323269528677859</v>
+        <v>0.3314717509259905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3937134790563157</v>
+        <v>0.3951120590855897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>726</v>
@@ -6544,19 +6544,19 @@
         <v>733124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>685763</v>
+        <v>692390</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>772111</v>
+        <v>774952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4555616074684546</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4261315884531167</v>
+        <v>0.4302497167680299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.479788399017637</v>
+        <v>0.4815533951449555</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>186293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162132</v>
+        <v>160094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>215850</v>
+        <v>216570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1883715637283186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1639410457909276</v>
+        <v>0.1618798447915776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2182581652444488</v>
+        <v>0.2189867688179812</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>510</v>
@@ -6669,19 +6669,19 @@
         <v>352747</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>325207</v>
+        <v>326276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379300</v>
+        <v>379411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3161968091919773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.291510169768249</v>
+        <v>0.2924684217499601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3399980925522155</v>
+        <v>0.3400973503068035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>688</v>
@@ -6690,19 +6690,19 @@
         <v>539040</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>504797</v>
+        <v>503721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>588366</v>
+        <v>582770</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2561297409060288</v>
+        <v>0.2561297409060287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.239858944511352</v>
+        <v>0.2393475212199231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2795671770500583</v>
+        <v>0.2769083728120527</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>235180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207035</v>
+        <v>207155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261987</v>
+        <v>266388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2378037561948352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2093449345764649</v>
+        <v>0.2094660743539134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2649103796687637</v>
+        <v>0.2693604873213415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>458</v>
@@ -6740,19 +6740,19 @@
         <v>324352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>298941</v>
+        <v>297343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>352546</v>
+        <v>350802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2907435639277169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2679659262163847</v>
+        <v>0.2665329653194946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3160166726383963</v>
+        <v>0.3144529391435311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>702</v>
@@ -6761,19 +6761,19 @@
         <v>559531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>524656</v>
+        <v>522840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>601384</v>
+        <v>598952</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2658663259877354</v>
+        <v>0.2658663259877353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2492947939335486</v>
+        <v>0.2484319191337832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2857529615550233</v>
+        <v>0.28459746158691</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>567493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>534724</v>
+        <v>537561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>600334</v>
+        <v>600621</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5738246800768462</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5406905213653359</v>
+        <v>0.5435586912956355</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6070329229967072</v>
+        <v>0.6073226948471865</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>589</v>
@@ -6811,19 +6811,19 @@
         <v>438495</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>410140</v>
+        <v>408095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>467828</v>
+        <v>467504</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3930596268803058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3676426142000647</v>
+        <v>0.3658097640668735</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.419353554581031</v>
+        <v>0.4190632748779922</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1172</v>
@@ -6832,19 +6832,19 @@
         <v>1005987</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>960344</v>
+        <v>963420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1052283</v>
+        <v>1050234</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.478003933106236</v>
+        <v>0.4780039331062358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4563162345234715</v>
+        <v>0.4577778388606161</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5000018739964075</v>
+        <v>0.4990282235988355</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>620735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1845</v>
@@ -6957,19 +6957,19 @@
         <v>1186464</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2450</v>
@@ -6978,19 +6978,19 @@
         <v>1807199</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>894611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>839438</v>
+        <v>841355</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>954306</v>
+        <v>954209</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2537752739243201</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2381242096081128</v>
+        <v>0.2386679920388169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2707091486835022</v>
+        <v>0.2706814203720839</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1783</v>
@@ -7028,19 +7028,19 @@
         <v>1234188</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1182292</v>
+        <v>1189799</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1290944</v>
+        <v>1288692</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3311585460608381</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3172337411184025</v>
+        <v>0.3192480411351775</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3463873262657443</v>
+        <v>0.3457830299432084</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2666</v>
@@ -7049,19 +7049,19 @@
         <v>2128799</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2058683</v>
+        <v>2046622</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2212881</v>
+        <v>2202774</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2935428656745495</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2838745513367951</v>
+        <v>0.2822113840015082</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3051370951522325</v>
+        <v>0.3037433721978933</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>2009863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5701400146748827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1725</v>
@@ -7099,19 +7099,19 @@
         <v>1306227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3504882308447337</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3606</v>
@@ -7120,19 +7120,19 @@
         <v>3316090</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4572600313736226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="23">
